--- a/office/달력일정표2024.xlsx
+++ b/office/달력일정표2024.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{60E071D2-A4A4-4DA3-B558-BB5AD7264C21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DB3CE28-4C06-474D-A0DF-F9AF816E5347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -80,6 +80,7 @@
     <definedName name="행제목영역1..K3">'1월'!$K$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -89,15 +90,12 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="22">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -180,10 +178,6 @@
   <si>
     <t>야</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>하루 휴일자 이영재님</t>
-    <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2460,10 +2454,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3043,11 +3033,6 @@
   <pageSetup paperSize="9" scale="84" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1"/>
   <drawing r:id="rId2"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5717,7 +5702,7 @@
   <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="D15" sqref="D15:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6022,9 +6007,7 @@
         <v>21</v>
       </c>
       <c r="C15" s="28"/>
-      <c r="D15" s="61" t="s">
-        <v>22</v>
-      </c>
+      <c r="D15" s="61"/>
       <c r="E15" s="61"/>
       <c r="F15" s="61"/>
       <c r="G15" s="61"/>

--- a/office/달력일정표2024.xlsx
+++ b/office/달력일정표2024.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DB3CE28-4C06-474D-A0DF-F9AF816E5347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74C16C5-D762-4164-BE17-7BFB2A3006F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="17640" tabRatio="788" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1월" sheetId="14" r:id="rId1"/>
@@ -80,7 +80,6 @@
     <definedName name="행제목영역1..K3">'1월'!$K$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -95,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="22">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -5701,8 +5700,8 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:H15"/>
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6056,7 +6055,9 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
@@ -6140,12 +6141,24 @@
     </row>
     <row r="5" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
       <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="C5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="6" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B6" s="40">
@@ -6172,13 +6185,27 @@
       </c>
     </row>
     <row r="7" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="B7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B8" s="41">
@@ -6205,13 +6232,27 @@
       </c>
     </row>
     <row r="9" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
+      <c r="B9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="50" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B10" s="40">
@@ -6238,13 +6279,27 @@
       </c>
     </row>
     <row r="11" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
+      <c r="B11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B12" s="41">
@@ -6271,9 +6326,15 @@
       </c>
     </row>
     <row r="13" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
+      <c r="B13" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>21</v>
+      </c>
       <c r="E13" s="27"/>
       <c r="F13" s="27"/>
       <c r="G13" s="27"/>
@@ -6345,9 +6406,11 @@
     <tabColor theme="9" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:P15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:P15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
@@ -6358,12 +6421,12 @@
     <col min="11" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="9" customHeight="1">
+    <row r="1" spans="2:16" ht="9" customHeight="1">
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="96" customHeight="1">
+    <row r="2" spans="2:16" ht="96" customHeight="1">
       <c r="B2" s="58" t="str">
         <f>"5월 "&amp;달력연도</f>
         <v>5월 2024</v>
@@ -6375,7 +6438,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1">
+    <row r="3" spans="2:16" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="B3" s="24" t="str">
         <f>주시작</f>
         <v>일요일</v>
@@ -6405,7 +6468,7 @@
         <v>토요일</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="4" spans="2:16" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B4" s="39">
         <f t="array" ref="B4:H4">요일및주+DATE(달력연도,5,1)-WEEKDAY(DATE(달력연도,5,1),(주시작="월요일")+1)+1</f>
         <v>45410</v>
@@ -6429,16 +6492,42 @@
         <v>45416</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
+    <row r="5" spans="2:16" s="10" customFormat="1" ht="56.1" customHeight="1">
       <c r="B5" s="27"/>
       <c r="C5" s="27"/>
       <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-    </row>
-    <row r="6" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+      <c r="E5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B6" s="40">
         <f t="array" ref="B6:H6">요일및주+DATE(달력연도,5,1)-WEEKDAY(DATE(달력연도,5,1),(주시작="월요일")+1)+8</f>
         <v>45417</v>
@@ -6462,16 +6551,48 @@
         <v>45423</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-    </row>
-    <row r="8" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="7" spans="2:16" s="10" customFormat="1" ht="56.1" customHeight="1">
+      <c r="B7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B8" s="41">
         <f t="array" ref="B8:H8">요일및주+DATE(달력연도,5,1)-WEEKDAY(DATE(달력연도,5,1),(주시작="월요일")+1)+15</f>
         <v>45424</v>
@@ -6495,16 +6616,48 @@
         <v>45430</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-    </row>
-    <row r="10" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="9" spans="2:16" s="10" customFormat="1" ht="56.1" customHeight="1">
+      <c r="B9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B10" s="40">
         <f t="array" ref="B10:H10">요일및주+DATE(달력연도,5,1)-WEEKDAY(DATE(달력연도,5,1),(주시작="월요일")+1)+22</f>
         <v>45431</v>
@@ -6528,16 +6681,48 @@
         <v>45437</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-    </row>
-    <row r="12" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="2:16" s="10" customFormat="1" ht="56.1" customHeight="1">
+      <c r="B11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B12" s="41">
         <f t="array" ref="B12:H12">요일및주+DATE(달력연도,5,1)-WEEKDAY(DATE(달력연도,5,1),(주시작="월요일")+1)+29</f>
         <v>45438</v>
@@ -6561,16 +6746,37 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B13" s="27"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
+    <row r="13" spans="2:16" s="10" customFormat="1" ht="56.1" customHeight="1">
+      <c r="B13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>19</v>
+      </c>
       <c r="H13" s="27"/>
-    </row>
-    <row r="14" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+      <c r="K13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B14" s="40">
         <f t="array" ref="B14:C14">요일및주+DATE(달력연도,5,1)-WEEKDAY(DATE(달력연도,5,1),(주시작="월요일")+1)+36</f>
         <v>45445</v>
@@ -6586,7 +6792,7 @@
       <c r="G14" s="59"/>
       <c r="H14" s="60"/>
     </row>
-    <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
+    <row r="15" spans="2:16" s="10" customFormat="1" ht="56.1" customHeight="1">
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
       <c r="D15" s="61"/>
@@ -6594,6 +6800,15 @@
       <c r="F15" s="61"/>
       <c r="G15" s="61"/>
       <c r="H15" s="62"/>
+      <c r="K15" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6636,9 +6851,11 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:P15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:P15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
   <cols>
@@ -6649,12 +6866,12 @@
     <col min="11" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="9" customHeight="1">
+    <row r="1" spans="2:16" ht="9" customHeight="1">
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="96" customHeight="1">
+    <row r="2" spans="2:16" ht="96" customHeight="1">
       <c r="B2" s="63" t="str">
         <f>"6월 "&amp;달력연도</f>
         <v>6월 2024</v>
@@ -6666,7 +6883,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1">
+    <row r="3" spans="2:16" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="B3" s="19" t="str">
         <f>주시작</f>
         <v>일요일</v>
@@ -6696,7 +6913,7 @@
         <v>토요일</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="4" spans="2:16" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B4" s="36">
         <f t="array" ref="B4:H4">요일및주+DATE(달력연도,6,1)-WEEKDAY(DATE(달력연도,6,1),(주시작="월요일")+1)+1</f>
         <v>45438</v>
@@ -6720,16 +6937,36 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
+    <row r="5" spans="2:16" s="10" customFormat="1" ht="56.1" customHeight="1">
       <c r="B5" s="22"/>
       <c r="C5" s="22"/>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+      <c r="H5" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B6" s="37">
         <f t="array" ref="B6:H6">요일및주+DATE(달력연도,6,1)-WEEKDAY(DATE(달력연도,6,1),(주시작="월요일")+1)+8</f>
         <v>45445</v>
@@ -6753,16 +6990,48 @@
         <v>45451</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="7" spans="2:16" s="10" customFormat="1" ht="56.1" customHeight="1">
+      <c r="B7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B8" s="38">
         <f t="array" ref="B8:H8">요일및주+DATE(달력연도,6,1)-WEEKDAY(DATE(달력연도,6,1),(주시작="월요일")+1)+15</f>
         <v>45452</v>
@@ -6786,16 +7055,48 @@
         <v>45458</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="9" spans="2:16" s="10" customFormat="1" ht="56.1" customHeight="1">
+      <c r="B9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B10" s="37">
         <f t="array" ref="B10:H10">요일및주+DATE(달력연도,6,1)-WEEKDAY(DATE(달력연도,6,1),(주시작="월요일")+1)+22</f>
         <v>45459</v>
@@ -6819,16 +7120,48 @@
         <v>45465</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="2:16" s="10" customFormat="1" ht="56.1" customHeight="1">
+      <c r="B11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B12" s="38">
         <f t="array" ref="B12:H12">요일및주+DATE(달력연도,6,1)-WEEKDAY(DATE(달력연도,6,1),(주시작="월요일")+1)+29</f>
         <v>45466</v>
@@ -6852,16 +7185,48 @@
         <v>45472</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="13" spans="2:16" s="10" customFormat="1" ht="56.1" customHeight="1">
+      <c r="B13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B14" s="37">
         <f t="array" ref="B14:C14">요일및주+DATE(달력연도,6,1)-WEEKDAY(DATE(달력연도,6,1),(주시작="월요일")+1)+36</f>
         <v>45473</v>
@@ -6877,14 +7242,25 @@
       <c r="G14" s="64"/>
       <c r="H14" s="65"/>
     </row>
-    <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B15" s="23"/>
+    <row r="15" spans="2:16" s="10" customFormat="1" ht="56.1" customHeight="1">
+      <c r="B15" s="51" t="s">
+        <v>20</v>
+      </c>
       <c r="C15" s="23"/>
       <c r="D15" s="66"/>
       <c r="E15" s="66"/>
       <c r="F15" s="66"/>
       <c r="G15" s="66"/>
       <c r="H15" s="67"/>
+      <c r="K15" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -6927,10 +7303,10 @@
     <tabColor theme="7" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:I15"/>
+  <dimension ref="B1:S15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6942,12 +7318,12 @@
     <col min="11" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="9" customHeight="1">
+    <row r="1" spans="2:19" ht="9" customHeight="1">
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="96" customHeight="1">
+    <row r="2" spans="2:19" ht="96" customHeight="1">
       <c r="B2" s="63" t="str">
         <f>"7월 "&amp;달력연도</f>
         <v>7월 2024</v>
@@ -6959,7 +7335,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1">
+    <row r="3" spans="2:19" s="4" customFormat="1" ht="24" customHeight="1">
       <c r="B3" s="19" t="str">
         <f>주시작</f>
         <v>일요일</v>
@@ -6989,7 +7365,7 @@
         <v>토요일</v>
       </c>
     </row>
-    <row r="4" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="4" spans="2:19" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B4" s="36">
         <f t="array" ref="B4:H4">요일및주+DATE(달력연도,7,1)-WEEKDAY(DATE(달력연도,7,1),(주시작="월요일")+1)+1</f>
         <v>45473</v>
@@ -7013,16 +7389,46 @@
         <v>45479</v>
       </c>
     </row>
-    <row r="5" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
+    <row r="5" spans="2:19" s="10" customFormat="1" ht="56.1" customHeight="1">
       <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-    </row>
-    <row r="6" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+      <c r="C5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="O5" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="51" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="2:19" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B6" s="37">
         <f t="array" ref="B6:H6">요일및주+DATE(달력연도,7,1)-WEEKDAY(DATE(달력연도,7,1),(주시작="월요일")+1)+8</f>
         <v>45480</v>
@@ -7046,16 +7452,57 @@
         <v>45486</v>
       </c>
     </row>
-    <row r="7" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B7" s="23"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-    </row>
-    <row r="8" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="7" spans="2:19" s="10" customFormat="1" ht="56.1" customHeight="1">
+      <c r="B7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="R7" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B8" s="38">
         <f t="array" ref="B8:H8">요일및주+DATE(달력연도,7,1)-WEEKDAY(DATE(달력연도,7,1),(주시작="월요일")+1)+15</f>
         <v>45487</v>
@@ -7079,16 +7526,48 @@
         <v>45493</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-    </row>
-    <row r="10" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="9" spans="2:19" s="10" customFormat="1" ht="56.1" customHeight="1">
+      <c r="B9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="O9" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="51" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:19" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B10" s="37">
         <f t="array" ref="B10:H10">요일및주+DATE(달력연도,7,1)-WEEKDAY(DATE(달력연도,7,1),(주시작="월요일")+1)+22</f>
         <v>45494</v>
@@ -7112,16 +7591,48 @@
         <v>45500</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B11" s="23"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-    </row>
-    <row r="12" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+    <row r="11" spans="2:19" s="10" customFormat="1" ht="56.1" customHeight="1">
+      <c r="B11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="L11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="N11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="P11" s="50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:19" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B12" s="38">
         <f t="array" ref="B12:H12">요일및주+DATE(달력연도,7,1)-WEEKDAY(DATE(달력연도,7,1),(주시작="월요일")+1)+29</f>
         <v>45501</v>
@@ -7145,16 +7656,42 @@
         <v>45507</v>
       </c>
     </row>
-    <row r="13" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
+    <row r="13" spans="2:19" s="10" customFormat="1" ht="56.1" customHeight="1">
+      <c r="B13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="50" t="s">
+        <v>19</v>
+      </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="2:9" s="8" customFormat="1" ht="24" customHeight="1">
+      <c r="K13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="M13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="O13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="P13" s="50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:19" s="8" customFormat="1" ht="24" customHeight="1">
       <c r="B14" s="37">
         <f t="array" ref="B14:C14">요일및주+DATE(달력연도,7,1)-WEEKDAY(DATE(달력연도,7,1),(주시작="월요일")+1)+36</f>
         <v>45508</v>
@@ -7170,7 +7707,7 @@
       <c r="G14" s="64"/>
       <c r="H14" s="65"/>
     </row>
-    <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1">
+    <row r="15" spans="2:19" s="10" customFormat="1" ht="56.1" customHeight="1">
       <c r="B15" s="23"/>
       <c r="C15" s="23"/>
       <c r="D15" s="66"/>
@@ -7178,6 +7715,15 @@
       <c r="F15" s="66"/>
       <c r="G15" s="66"/>
       <c r="H15" s="67"/>
+      <c r="K15" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L15" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="50" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -7196,7 +7742,7 @@
       <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations disablePrompts="1" count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C3:H3" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="7월 한 달 일정" sqref="A1" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B2:D2" xr:uid="{00000000-0002-0000-0600-000002000000}"/>
@@ -7875,6 +8421,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -8095,25 +8659,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DF88E0-C534-44A9-B15A-DDE8DD22045C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8130,22 +8694,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/office/달력일정표2024.xlsx
+++ b/office/달력일정표2024.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74C16C5-D762-4164-BE17-7BFB2A3006F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FCE5C7-059B-4284-B452-6E39F81C30B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="17640" tabRatio="788" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7306,7 +7306,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -7395,19 +7395,19 @@
         <v>20</v>
       </c>
       <c r="D5" s="51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="50" t="s">
-        <v>19</v>
+      <c r="F5" s="51" t="s">
+        <v>21</v>
       </c>
       <c r="G5" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="51" t="s">
-        <v>20</v>
+      <c r="H5" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="K5" s="50" t="s">
         <v>19</v>
@@ -7457,22 +7457,22 @@
         <v>20</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="G7" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="K7" s="51" t="s">
         <v>20</v>
@@ -7528,22 +7528,22 @@
     </row>
     <row r="9" spans="2:19" s="10" customFormat="1" ht="56.1" customHeight="1">
       <c r="B9" s="51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>20</v>
+        <v>20</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="H9" s="51" t="s">
         <v>20</v>
@@ -7593,7 +7593,7 @@
     </row>
     <row r="11" spans="2:19" s="10" customFormat="1" ht="56.1" customHeight="1">
       <c r="B11" s="51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="51" t="s">
         <v>21</v>
@@ -8430,15 +8430,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -8659,6 +8650,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
   <ds:schemaRefs>
@@ -8668,16 +8668,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DF88E0-C534-44A9-B15A-DDE8DD22045C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8694,4 +8684,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/office/달력일정표2024.xlsx
+++ b/office/달력일정표2024.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4FCE5C7-059B-4284-B452-6E39F81C30B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2D48FA-84BC-4678-804F-839649F73532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="17640" tabRatio="788" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7306,7 +7306,7 @@
   <dimension ref="B1:S15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -7403,8 +7403,8 @@
       <c r="F5" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="50" t="s">
-        <v>19</v>
+      <c r="G5" s="51" t="s">
+        <v>21</v>
       </c>
       <c r="H5" s="50" t="s">
         <v>19</v>
@@ -7453,17 +7453,17 @@
       </c>
     </row>
     <row r="7" spans="2:19" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B7" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>21</v>
+      <c r="B7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="F7" s="51" t="s">
         <v>21</v>
@@ -7527,14 +7527,14 @@
       </c>
     </row>
     <row r="9" spans="2:19" s="10" customFormat="1" ht="56.1" customHeight="1">
-      <c r="B9" s="51" t="s">
-        <v>20</v>
+      <c r="B9" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="51" t="s">
         <v>21</v>
@@ -7545,8 +7545,8 @@
       <c r="G9" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="51" t="s">
-        <v>20</v>
+      <c r="H9" s="50" t="s">
+        <v>19</v>
       </c>
       <c r="K9" s="51" t="s">
         <v>21</v>
@@ -7596,13 +7596,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>21</v>
       </c>
       <c r="F11" s="50" t="s">
         <v>19</v>
@@ -7610,8 +7610,8 @@
       <c r="G11" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="50" t="s">
-        <v>19</v>
+      <c r="H11" s="51" t="s">
+        <v>20</v>
       </c>
       <c r="K11" s="51" t="s">
         <v>20</v>
@@ -7658,16 +7658,16 @@
     </row>
     <row r="13" spans="2:19" s="10" customFormat="1" ht="56.1" customHeight="1">
       <c r="B13" s="51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="50" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>21</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
@@ -7742,7 +7742,7 @@
       <formula>AND(DAY(B12)&gt;=1,DAY(B12)&lt;=15)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="8">
+  <dataValidations count="8">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="자동으로 결정된 평일입니다." sqref="C3:H3" xr:uid="{00000000-0002-0000-0600-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="7월 한 달 일정" sqref="A1" xr:uid="{00000000-0002-0000-0600-000001000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="이 셀의 연도는 1월 워크시트에 입력한 연도에 따라 자동으로 업데이트됩니다. 아래 달력에는 이전 달과 다음 달의 날짜가 연한 글꼴 음영으로 표시됩니다." sqref="B2:D2" xr:uid="{00000000-0002-0000-0600-000002000000}"/>
@@ -8421,12 +8421,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8651,18 +8651,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8687,11 +8689,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/office/달력일정표2024.xlsx
+++ b/office/달력일정표2024.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C2D48FA-84BC-4678-804F-839649F73532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BE28DB-65E6-480A-87DE-1A98376E62F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1965" windowWidth="29040" windowHeight="17640" tabRatio="788" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1월" sheetId="14" r:id="rId1"/>
@@ -6408,8 +6408,8 @@
   </sheetPr>
   <dimension ref="B1:P15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:P15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6698,7 +6698,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="51" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="51" t="s">
         <v>21</v>
@@ -7305,7 +7305,7 @@
   </sheetPr>
   <dimension ref="B1:S15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -8421,12 +8421,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8651,20 +8651,18 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8689,9 +8687,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/office/달력일정표2024.xlsx
+++ b/office/달력일정표2024.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BE28DB-65E6-480A-87DE-1A98376E62F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3A70B3-308A-42FC-9E6A-D84AD39E54CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="788" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1월" sheetId="14" r:id="rId1"/>
@@ -6409,7 +6409,7 @@
   <dimension ref="B1:P15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -6636,7 +6636,7 @@
         <v>20</v>
       </c>
       <c r="H9" s="51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="51" t="s">
         <v>21</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="11" spans="2:16" s="10" customFormat="1" ht="56.1" customHeight="1">
       <c r="B11" s="51" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="50" t="s">
         <v>19</v>
@@ -8421,12 +8421,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8651,18 +8651,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8687,11 +8689,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>